--- a/data/bw=7.0-kernel=gaussian_poly2-contamweight=0.001-summary.xlsx
+++ b/data/bw=7.0-kernel=gaussian_poly2-contamweight=0.001-summary.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxizhou/Dropbox/code_package/IFlogdensity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA6A084-BC3E-0149-ADD8-4F227D534158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00129130-AF28-0E42-B537-2D720081A709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24060" yWindow="500" windowWidth="27140" windowHeight="21100" activeTab="13" xr2:uid="{E9883583-B6DF-E640-86AB-1582C701575C}"/>
+    <workbookView xWindow="24060" yWindow="500" windowWidth="27140" windowHeight="21100" xr2:uid="{E9883583-B6DF-E640-86AB-1582C701575C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ML-20" sheetId="2" r:id="rId1"/>
-    <sheet name="ML-60" sheetId="1" r:id="rId2"/>
-    <sheet name="ML-120" sheetId="3" r:id="rId3"/>
-    <sheet name="ML-150" sheetId="4" r:id="rId4"/>
-    <sheet name="ML-200" sheetId="5" r:id="rId5"/>
-    <sheet name="SM-20" sheetId="6" r:id="rId6"/>
-    <sheet name="SM-60" sheetId="7" r:id="rId7"/>
-    <sheet name="SM-120" sheetId="8" r:id="rId8"/>
-    <sheet name="SM-150" sheetId="9" r:id="rId9"/>
-    <sheet name="SM-200" sheetId="10" r:id="rId10"/>
-    <sheet name="SM-fin-20" sheetId="11" r:id="rId11"/>
-    <sheet name="SM-fin-120" sheetId="12" r:id="rId12"/>
-    <sheet name="SM-fin-150" sheetId="13" r:id="rId13"/>
-    <sheet name="SM-fin-200" sheetId="14" r:id="rId14"/>
+    <sheet name="ML-20-new" sheetId="15" r:id="rId1"/>
+    <sheet name="ML-120-new" sheetId="16" r:id="rId2"/>
+    <sheet name="ML-150-new" sheetId="17" r:id="rId3"/>
+    <sheet name="ML-200-new" sheetId="18" r:id="rId4"/>
+    <sheet name="ML-20" sheetId="2" r:id="rId5"/>
+    <sheet name="ML-60" sheetId="1" r:id="rId6"/>
+    <sheet name="ML-120" sheetId="3" r:id="rId7"/>
+    <sheet name="ML-150" sheetId="4" r:id="rId8"/>
+    <sheet name="ML-200" sheetId="5" r:id="rId9"/>
+    <sheet name="SM-20" sheetId="6" r:id="rId10"/>
+    <sheet name="SM-60" sheetId="7" r:id="rId11"/>
+    <sheet name="SM-120" sheetId="8" r:id="rId12"/>
+    <sheet name="SM-150" sheetId="9" r:id="rId13"/>
+    <sheet name="SM-200" sheetId="10" r:id="rId14"/>
+    <sheet name="SM-fin-20" sheetId="11" r:id="rId15"/>
+    <sheet name="SM-fin-120" sheetId="12" r:id="rId16"/>
+    <sheet name="SM-fin-150" sheetId="13" r:id="rId17"/>
+    <sheet name="SM-fin-200" sheetId="14" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="7">
   <si>
     <t>log-lambda</t>
   </si>
@@ -441,10 +445,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EE7633-A005-F94D-B73C-08EA307A6712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADC1E3-CA2B-DF4E-A9B6-6478B552C224}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -492,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2.2593597096132698</v>
+        <v>2.3971526488289898</v>
       </c>
       <c r="E2" s="1">
-        <v>2.2407471986785401</v>
+        <v>2.3733759508278398</v>
       </c>
       <c r="F2" s="1">
-        <v>103.723603941116</v>
+        <v>122.911363661444</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -515,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>2.2593313785689899</v>
+        <v>2.3971165219636399</v>
       </c>
       <c r="E3" s="1">
-        <v>2.24071950472272</v>
+        <v>2.3733408140726899</v>
       </c>
       <c r="F3" s="1">
-        <v>103.721229471851</v>
+        <v>122.907989730293</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -538,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>2.2592543717973599</v>
+        <v>2.3970183268216601</v>
       </c>
       <c r="E4" s="1">
-        <v>2.2406442296225002</v>
+        <v>2.3732453101116602</v>
       </c>
       <c r="F4" s="1">
-        <v>103.714775354639</v>
+        <v>122.898819054039</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -561,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2.25904508256346</v>
+        <v>2.3967514628146498</v>
       </c>
       <c r="E5" s="1">
-        <v>2.2404396467131198</v>
+        <v>2.3729857598852302</v>
       </c>
       <c r="F5" s="1">
-        <v>103.697233900604</v>
+        <v>122.873895148174</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -584,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2.25847644778126</v>
+        <v>2.3960264800231399</v>
       </c>
       <c r="E6" s="1">
-        <v>2.2398837987948199</v>
+        <v>2.3722806461353398</v>
       </c>
       <c r="F6" s="1">
-        <v>103.649570900291</v>
+        <v>122.80617875217099</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -607,13 +611,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2569327479946399</v>
+        <v>2.3940589359707301</v>
       </c>
       <c r="E7" s="1">
-        <v>2.2383748111425001</v>
+        <v>2.37036702407325</v>
       </c>
       <c r="F7" s="1">
-        <v>103.520154245504</v>
+        <v>122.62235601765001</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -630,13 +634,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2.1829283621718201</v>
+        <v>2.2669553782045102</v>
       </c>
       <c r="E8" s="1">
-        <v>2.1672798887617799</v>
+        <v>2.2480479087509102</v>
       </c>
       <c r="F8" s="1">
-        <v>92.337760086973404</v>
+        <v>101.938163807428</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -653,13 +657,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>2.1806998020794102</v>
+        <v>2.26437177171193</v>
       </c>
       <c r="E9" s="1">
-        <v>2.1650950235578499</v>
+        <v>2.2455234169548</v>
       </c>
       <c r="F9" s="1">
-        <v>92.162528556705993</v>
+        <v>101.723244590321</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -676,13 +680,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>2.1770392299258998</v>
+        <v>2.26013007171567</v>
       </c>
       <c r="E10" s="1">
-        <v>2.1615062092217698</v>
+        <v>2.2413787506660401</v>
       </c>
       <c r="F10" s="1">
-        <v>91.874580964869693</v>
+        <v>101.37021858671601</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -699,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.1710409611723702</v>
+        <v>2.2531851052330798</v>
       </c>
       <c r="E11" s="1">
-        <v>2.1556254834962201</v>
+        <v>2.23459260269615</v>
       </c>
       <c r="F11" s="1">
-        <v>91.402433503287</v>
+        <v>100.79173452187</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -722,13 +726,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>2.2034742201208002</v>
+        <v>2.2418647534103999</v>
       </c>
       <c r="E12" s="1">
-        <v>2.18635785134247</v>
+        <v>2.2235309624082</v>
       </c>
       <c r="F12" s="1">
-        <v>92.301920186674295</v>
+        <v>99.847558783213898</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -745,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>2.1431430763669401</v>
+        <v>2.24280458204644</v>
       </c>
       <c r="E13" s="1">
-        <v>2.1277277251701001</v>
+        <v>2.22397286295221</v>
       </c>
       <c r="F13" s="1">
-        <v>85.106649780293196</v>
+        <v>93.941107907440298</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -768,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>2.1188880094622999</v>
+        <v>2.2142009211098399</v>
       </c>
       <c r="E14" s="1">
-        <v>2.1039503322397102</v>
+        <v>2.1960342345248201</v>
       </c>
       <c r="F14" s="1">
-        <v>83.259208241699397</v>
+        <v>91.676266784133901</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -791,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1.92167844622286</v>
+        <v>2.1650267845678202</v>
       </c>
       <c r="E15" s="1">
-        <v>1.91165362578233</v>
+        <v>2.1481649499545501</v>
       </c>
       <c r="F15" s="1">
-        <v>61.385105070925697</v>
+        <v>85.5427341993895</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -814,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1.88245290666028</v>
+        <v>2.0984987062670299</v>
       </c>
       <c r="E16" s="1">
-        <v>1.87297007421416</v>
+        <v>2.08310662818959</v>
       </c>
       <c r="F16" s="1">
-        <v>58.771333145706699</v>
+        <v>80.387265760279504</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -837,13 +841,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1.81741398678037</v>
+        <v>1.75109228814516</v>
       </c>
       <c r="E17" s="1">
-        <v>1.80879902884527</v>
+        <v>1.7437855021095101</v>
       </c>
       <c r="F17" s="1">
-        <v>54.823849396655</v>
+        <v>48.084912439037403</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -860,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1.7220092428266001</v>
+        <v>1.6683208122473301</v>
       </c>
       <c r="E18" s="1">
-        <v>1.71463168922886</v>
+        <v>1.6619112209876601</v>
       </c>
       <c r="F18" s="1">
-        <v>49.0771320860012</v>
+        <v>43.728885138108303</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -883,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1.51040562946039</v>
+        <v>1.5449173705583099</v>
       </c>
       <c r="E19" s="1">
-        <v>1.5055889338852499</v>
+        <v>1.53965551274858</v>
       </c>
       <c r="F19" s="1">
-        <v>33.887287628179003</v>
+        <v>35.369320504845</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -906,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>1.3621154044670301</v>
+        <v>1.3958037187391401</v>
       </c>
       <c r="E20" s="1">
-        <v>1.3585744618212201</v>
+        <v>1.3918204781082399</v>
       </c>
       <c r="F20" s="1">
-        <v>27.2527511793079</v>
+        <v>28.212895474815902</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -929,13 +933,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>1.1697644877052999</v>
+        <v>1.1480306060482901</v>
       </c>
       <c r="E21" s="1">
-        <v>1.1674700645386</v>
+        <v>1.14567558088482</v>
       </c>
       <c r="F21" s="1">
-        <v>19.498418046836701</v>
+        <v>18.8665276934614</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -952,13 +956,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0.96765280761038197</v>
+        <v>0.96682457405728395</v>
       </c>
       <c r="E22" s="1">
-        <v>0.96612304273317495</v>
+        <v>0.96527538725898698</v>
       </c>
       <c r="F22" s="1">
-        <v>13.2351251121072</v>
+        <v>13.2346053721086</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -975,13 +979,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>0.75426096741535098</v>
+        <v>0.77393885798057904</v>
       </c>
       <c r="E23" s="1">
-        <v>0.75332555273591195</v>
+        <v>0.77295332038574205</v>
       </c>
       <c r="F23" s="1">
-        <v>8.4188902682313902</v>
+        <v>8.61075474140093</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -998,13 +1002,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0.58581735759714504</v>
+        <v>0.573553040441524</v>
       </c>
       <c r="E24" s="1">
-        <v>0.58521434977999398</v>
+        <v>0.57295479277850703</v>
       </c>
       <c r="F24" s="1">
-        <v>5.4656488546029802</v>
+        <v>5.3230513538586797</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1021,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.41422978857730403</v>
+        <v>0.41607281969849702</v>
       </c>
       <c r="E25" s="1">
-        <v>0.41385412727632398</v>
+        <v>0.41570029931381403</v>
       </c>
       <c r="F25" s="1">
-        <v>3.3142229540352699</v>
+        <v>3.3325765992096001</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -1044,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>0.28896114359249497</v>
+        <v>0.28651364461655499</v>
       </c>
       <c r="E26" s="1">
-        <v>0.288730709092827</v>
+        <v>0.28628218253800403</v>
       </c>
       <c r="F26" s="1">
-        <v>2.0420694468974401</v>
+        <v>2.0417974150142002</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1067,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>0.19916479332617201</v>
+        <v>0.19139645610816</v>
       </c>
       <c r="E27" s="1">
-        <v>0.19901691755057399</v>
+        <v>0.19124693295122799</v>
       </c>
       <c r="F27" s="1">
-        <v>1.2703943189684701</v>
+        <v>1.25639452928538</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1090,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.120160399925287</v>
+        <v>0.12450435331149701</v>
       </c>
       <c r="E28" s="1">
-        <v>0.120072695166085</v>
+        <v>0.12441740775966</v>
       </c>
       <c r="F28" s="1">
-        <v>0.75765644359648798</v>
+        <v>0.77404212760967495</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1131,6 +1135,1992 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E8BDC0-1C7A-494E-8238-3B1FFEFD3280}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>64.710453960084294</v>
+      </c>
+      <c r="C2">
+        <v>137.467285687258</v>
+      </c>
+      <c r="D2">
+        <v>73350.218222851996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>-14.5</v>
+      </c>
+      <c r="B3">
+        <v>47.358901410182902</v>
+      </c>
+      <c r="C3">
+        <v>87.740626916371298</v>
+      </c>
+      <c r="D3">
+        <v>37034.041855441297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>-14</v>
+      </c>
+      <c r="B4">
+        <v>37.396586255028403</v>
+      </c>
+      <c r="C4">
+        <v>58.569969366968003</v>
+      </c>
+      <c r="D4">
+        <v>18923.4898730854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>-13.5</v>
+      </c>
+      <c r="B5">
+        <v>31.119284876986399</v>
+      </c>
+      <c r="C5">
+        <v>41.643939405107197</v>
+      </c>
+      <c r="D5">
+        <v>15607.1188757086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <v>26.1966694853954</v>
+      </c>
+      <c r="C6">
+        <v>31.3509069565605</v>
+      </c>
+      <c r="D6">
+        <v>9860.8835247557399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="B7">
+        <v>21.607915784087201</v>
+      </c>
+      <c r="C7">
+        <v>24.2544324741034</v>
+      </c>
+      <c r="D7">
+        <v>6448.40116055408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>-12</v>
+      </c>
+      <c r="B8">
+        <v>17.231487345327199</v>
+      </c>
+      <c r="C8">
+        <v>18.739914689663198</v>
+      </c>
+      <c r="D8">
+        <v>4457.6550788536997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>-11.5</v>
+      </c>
+      <c r="B9">
+        <v>13.368040470232399</v>
+      </c>
+      <c r="C9">
+        <v>14.3345061544674</v>
+      </c>
+      <c r="D9">
+        <v>3234.2691606436001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>-11</v>
+      </c>
+      <c r="B10">
+        <v>10.318060751006501</v>
+      </c>
+      <c r="C10">
+        <v>10.977445393352101</v>
+      </c>
+      <c r="D10">
+        <v>2388.48951838328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>-10.5</v>
+      </c>
+      <c r="B11">
+        <v>8.1369464495544399</v>
+      </c>
+      <c r="C11">
+        <v>8.5771482095101099</v>
+      </c>
+      <c r="D11">
+        <v>1737.43416926294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>6.6355817997379303</v>
+      </c>
+      <c r="C12">
+        <v>6.9076617020919597</v>
+      </c>
+      <c r="D12">
+        <v>1221.77383330874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="B13">
+        <v>5.5443278581826698</v>
+      </c>
+      <c r="C13">
+        <v>5.69902468102062</v>
+      </c>
+      <c r="D13">
+        <v>827.30163458462505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>-9</v>
+      </c>
+      <c r="B14">
+        <v>4.6609164664469596</v>
+      </c>
+      <c r="C14">
+        <v>4.7435575192744599</v>
+      </c>
+      <c r="D14">
+        <v>541.99131464977404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="B15">
+        <v>3.8853728384480699</v>
+      </c>
+      <c r="C15">
+        <v>3.9278054568077101</v>
+      </c>
+      <c r="D15">
+        <v>346.19719186510798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>-8</v>
+      </c>
+      <c r="B16">
+        <v>3.1887739609694798</v>
+      </c>
+      <c r="C16">
+        <v>3.2099715250642902</v>
+      </c>
+      <c r="D16">
+        <v>217.242184584847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>-7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.5767933787535502</v>
+      </c>
+      <c r="C17">
+        <v>2.5870876620116801</v>
+      </c>
+      <c r="D17">
+        <v>134.69114327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>-7</v>
+      </c>
+      <c r="B18">
+        <v>2.0597387606014999</v>
+      </c>
+      <c r="C18">
+        <v>2.0645300091955199</v>
+      </c>
+      <c r="D18">
+        <v>82.856481712010293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="B19">
+        <v>1.6322598815917799</v>
+      </c>
+      <c r="C19">
+        <v>1.63432419412193</v>
+      </c>
+      <c r="D19">
+        <v>50.712330885779899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>-6</v>
+      </c>
+      <c r="B20">
+        <v>1.2745913390165799</v>
+      </c>
+      <c r="C20">
+        <v>1.2753389327229201</v>
+      </c>
+      <c r="D20">
+        <v>30.934002735055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>-5.5</v>
+      </c>
+      <c r="B21">
+        <v>0.96900340314036204</v>
+      </c>
+      <c r="C21">
+        <v>0.96914445803730498</v>
+      </c>
+      <c r="D21">
+        <v>18.823846023899101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>0.70961152553804996</v>
+      </c>
+      <c r="C22">
+        <v>0.70950395634953101</v>
+      </c>
+      <c r="D22">
+        <v>11.433366156055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="B23">
+        <v>0.49834574442071999</v>
+      </c>
+      <c r="C23">
+        <v>0.498167203731884</v>
+      </c>
+      <c r="D23">
+        <v>6.93478955077964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0.33637064395802502</v>
+      </c>
+      <c r="C24">
+        <v>0.33620146185112199</v>
+      </c>
+      <c r="D24">
+        <v>4.2026227731355403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="B25">
+        <v>0.219661674741333</v>
+      </c>
+      <c r="C25">
+        <v>0.21952933640976199</v>
+      </c>
+      <c r="D25">
+        <v>2.5460739368448002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>-3</v>
+      </c>
+      <c r="B26">
+        <v>0.13991280586004601</v>
+      </c>
+      <c r="C26">
+        <v>0.13981921463248101</v>
+      </c>
+      <c r="D26">
+        <v>1.5425856506467901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="B27">
+        <v>8.7571184178197398E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.7508827465291997E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.93481820350404998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B28">
+        <v>5.4175357573696598E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.4135297785156099E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.56664733142852697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>3.3264700799671698E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.3239534678173699E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.343554596858197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>2.0328932231452601E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.0313337894971799E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.20844881767878501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.2387194066701E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.2377611606722801E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.12645799285237999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>7.5343990687775902E-3</v>
+      </c>
+      <c r="C32">
+        <v>7.5285408173208701E-3</v>
+      </c>
+      <c r="D32">
+        <v>7.6710900552612302E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>4.5776808430442904E-3</v>
+      </c>
+      <c r="C33">
+        <v>4.5741105097660698E-3</v>
+      </c>
+      <c r="D33">
+        <v>4.6531323508958097E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.7793964178670599E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.77722457242695E-3</v>
+      </c>
+      <c r="D34">
+        <v>2.8224084996253299E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C15C16D-3F3A-4445-952C-79188DBCF960}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>64.710453965740996</v>
+      </c>
+      <c r="C2">
+        <v>64.374693240488298</v>
+      </c>
+      <c r="D2">
+        <v>103.899437179947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>-14.5</v>
+      </c>
+      <c r="B3">
+        <v>47.358901408389698</v>
+      </c>
+      <c r="C3">
+        <v>47.266530981678599</v>
+      </c>
+      <c r="D3">
+        <v>108.68710669133399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>-14</v>
+      </c>
+      <c r="B4">
+        <v>37.396586255235597</v>
+      </c>
+      <c r="C4">
+        <v>37.437771050930202</v>
+      </c>
+      <c r="D4">
+        <v>89.943650606707905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>-13.5</v>
+      </c>
+      <c r="B5">
+        <v>31.119284876934501</v>
+      </c>
+      <c r="C5">
+        <v>31.215510319734399</v>
+      </c>
+      <c r="D5">
+        <v>60.824665245979403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <v>26.196669485063602</v>
+      </c>
+      <c r="C6">
+        <v>26.305101585084099</v>
+      </c>
+      <c r="D6">
+        <v>32.182602796629197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="B7">
+        <v>21.607915784178601</v>
+      </c>
+      <c r="C7">
+        <v>21.7101217769942</v>
+      </c>
+      <c r="D7">
+        <v>14.5706609762497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>-12</v>
+      </c>
+      <c r="B8">
+        <v>17.231487345287398</v>
+      </c>
+      <c r="C8">
+        <v>17.321182272848599</v>
+      </c>
+      <c r="D8">
+        <v>14.4538605931661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>-11.5</v>
+      </c>
+      <c r="B9">
+        <v>13.368040470210399</v>
+      </c>
+      <c r="C9">
+        <v>13.4441713118261</v>
+      </c>
+      <c r="D9">
+        <v>14.314993996967999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>-11</v>
+      </c>
+      <c r="B10">
+        <v>10.3180607510117</v>
+      </c>
+      <c r="C10">
+        <v>10.381439912662</v>
+      </c>
+      <c r="D10">
+        <v>14.095793248931599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>-10.5</v>
+      </c>
+      <c r="B11">
+        <v>8.1369464495507309</v>
+      </c>
+      <c r="C11">
+        <v>8.1885206297859199</v>
+      </c>
+      <c r="D11">
+        <v>13.7698775505441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>6.6355817997396001</v>
+      </c>
+      <c r="C12">
+        <v>6.6759668839578499</v>
+      </c>
+      <c r="D12">
+        <v>13.318072348701101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="B13">
+        <v>5.5443278581821396</v>
+      </c>
+      <c r="C13">
+        <v>5.5741823674757196</v>
+      </c>
+      <c r="D13">
+        <v>12.7126253859533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>-9</v>
+      </c>
+      <c r="B14">
+        <v>4.6609164664471203</v>
+      </c>
+      <c r="C14">
+        <v>4.6813240365431996</v>
+      </c>
+      <c r="D14">
+        <v>11.923100371571801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="B15">
+        <v>3.8853728384480202</v>
+      </c>
+      <c r="C15">
+        <v>3.8978658411209</v>
+      </c>
+      <c r="D15">
+        <v>10.939948950629599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>-8</v>
+      </c>
+      <c r="B16">
+        <v>3.1887739609693901</v>
+      </c>
+      <c r="C16">
+        <v>3.1950964581093202</v>
+      </c>
+      <c r="D16">
+        <v>9.78404960131218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>-7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.5767933787535702</v>
+      </c>
+      <c r="C17">
+        <v>2.5786792454327001</v>
+      </c>
+      <c r="D17">
+        <v>8.50664907867138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>-7</v>
+      </c>
+      <c r="B18">
+        <v>2.05973876060153</v>
+      </c>
+      <c r="C18">
+        <v>2.0588407705914298</v>
+      </c>
+      <c r="D18">
+        <v>7.1665449817226401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="B19">
+        <v>1.6322598815917699</v>
+      </c>
+      <c r="C19">
+        <v>1.6300688381722701</v>
+      </c>
+      <c r="D19">
+        <v>5.8155195158713298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>-6</v>
+      </c>
+      <c r="B20">
+        <v>1.2745913390165899</v>
+      </c>
+      <c r="C20">
+        <v>1.2722253985246601</v>
+      </c>
+      <c r="D20">
+        <v>4.5146218651268502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>-5.5</v>
+      </c>
+      <c r="B21">
+        <v>0.96900340314036204</v>
+      </c>
+      <c r="C21">
+        <v>0.96705610266397302</v>
+      </c>
+      <c r="D21">
+        <v>3.3419494083579599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>0.70961152553804996</v>
+      </c>
+      <c r="C22">
+        <v>0.70823146121974001</v>
+      </c>
+      <c r="D22">
+        <v>2.36279721904075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="B23">
+        <v>0.49834574442072099</v>
+      </c>
+      <c r="C23">
+        <v>0.49744873219571201</v>
+      </c>
+      <c r="D23">
+        <v>1.6045702091407299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0.33637064395802502</v>
+      </c>
+      <c r="C24">
+        <v>0.33581369072425499</v>
+      </c>
+      <c r="D24">
+        <v>1.05430147890528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="B25">
+        <v>0.219661674741333</v>
+      </c>
+      <c r="C25">
+        <v>0.21932289886131001</v>
+      </c>
+      <c r="D25">
+        <v>0.67525061119599805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>-3</v>
+      </c>
+      <c r="B26">
+        <v>0.13991280586004601</v>
+      </c>
+      <c r="C26">
+        <v>0.13970819126355599</v>
+      </c>
+      <c r="D26">
+        <v>0.42453384610929801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="B27">
+        <v>8.7571184178197398E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.74477381332079E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.263481858257197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B28">
+        <v>5.4175357573696598E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.4100813757540299E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.16213831307521001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>3.3264700799671698E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.3219630367152003E-2</v>
+      </c>
+      <c r="D29">
+        <v>9.9224719098955902E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>2.0328932231452601E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.0301653121847101E-2</v>
+      </c>
+      <c r="D30">
+        <v>6.0513750482993303E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.2387194066701E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.23706707514348E-2</v>
+      </c>
+      <c r="D31">
+        <v>3.68278174009972E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>7.5343990687775902E-3</v>
+      </c>
+      <c r="C32">
+        <v>7.5243856375790397E-3</v>
+      </c>
+      <c r="D32">
+        <v>2.2383522503943699E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>4.5776808430442904E-3</v>
+      </c>
+      <c r="C33">
+        <v>4.5716105636685401E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.3593407492962201E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.7793964178670599E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.7757157881264601E-3</v>
+      </c>
+      <c r="D34">
+        <v>8.25113119340414E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A5F18C-CB85-7E49-B60E-1D3620CA95E5}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>64.710453962454395</v>
+      </c>
+      <c r="C2">
+        <v>130.64812984124501</v>
+      </c>
+      <c r="D2">
+        <v>70520.551238214597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>-14.5</v>
+      </c>
+      <c r="B3">
+        <v>47.358901410860199</v>
+      </c>
+      <c r="C3">
+        <v>83.567097120424606</v>
+      </c>
+      <c r="D3">
+        <v>47514.918929106898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>-14</v>
+      </c>
+      <c r="B4">
+        <v>37.396586255130302</v>
+      </c>
+      <c r="C4">
+        <v>56.1802675929233</v>
+      </c>
+      <c r="D4">
+        <v>25542.7577022447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>-13.5</v>
+      </c>
+      <c r="B5">
+        <v>31.119284876208901</v>
+      </c>
+      <c r="C5">
+        <v>40.3478998645814</v>
+      </c>
+      <c r="D5">
+        <v>12316.614680655501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <v>26.196669485326201</v>
+      </c>
+      <c r="C6">
+        <v>30.626180735503699</v>
+      </c>
+      <c r="D6">
+        <v>8397.3225179915007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="B7">
+        <v>21.607915784046</v>
+      </c>
+      <c r="C7">
+        <v>23.767465305349901</v>
+      </c>
+      <c r="D7">
+        <v>5617.0843277070999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>-12</v>
+      </c>
+      <c r="B8">
+        <v>17.231487345322702</v>
+      </c>
+      <c r="C8">
+        <v>18.324959148078701</v>
+      </c>
+      <c r="D8">
+        <v>3427.0933770945198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>-11.5</v>
+      </c>
+      <c r="B9">
+        <v>13.368040470237601</v>
+      </c>
+      <c r="C9">
+        <v>13.941773863116699</v>
+      </c>
+      <c r="D9">
+        <v>2079.1327750769401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>-11</v>
+      </c>
+      <c r="B10">
+        <v>10.3180607510067</v>
+      </c>
+      <c r="C10">
+        <v>10.623625616996501</v>
+      </c>
+      <c r="D10">
+        <v>1265.95161549612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>-10.5</v>
+      </c>
+      <c r="B11">
+        <v>8.1369464495507895</v>
+      </c>
+      <c r="C11">
+        <v>8.2978364703592895</v>
+      </c>
+      <c r="D11">
+        <v>776.51925388227903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>6.6355817997400601</v>
+      </c>
+      <c r="C12">
+        <v>6.71792652698959</v>
+      </c>
+      <c r="D12">
+        <v>479.66505807965501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="B13">
+        <v>5.5443278581829096</v>
+      </c>
+      <c r="C13">
+        <v>5.5851799442133503</v>
+      </c>
+      <c r="D13">
+        <v>297.326966804817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>-9</v>
+      </c>
+      <c r="B14">
+        <v>4.6609164664473903</v>
+      </c>
+      <c r="C14">
+        <v>4.6805838638297699</v>
+      </c>
+      <c r="D14">
+        <v>184.15673929385699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="B15">
+        <v>3.8853728384479602</v>
+      </c>
+      <c r="C15">
+        <v>3.8945232102342402</v>
+      </c>
+      <c r="D15">
+        <v>113.709435587926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>-8</v>
+      </c>
+      <c r="B16">
+        <v>3.1887739609694701</v>
+      </c>
+      <c r="C16">
+        <v>3.1928252382949101</v>
+      </c>
+      <c r="D16">
+        <v>69.948772685316698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>-7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.5767933787535502</v>
+      </c>
+      <c r="C17">
+        <v>2.5784207113437998</v>
+      </c>
+      <c r="D17">
+        <v>42.8972797519247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>-7</v>
+      </c>
+      <c r="B18">
+        <v>2.0597387606015198</v>
+      </c>
+      <c r="C18">
+        <v>2.0602301482873799</v>
+      </c>
+      <c r="D18">
+        <v>26.2425859577497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="B19">
+        <v>1.6322598815917599</v>
+      </c>
+      <c r="C19">
+        <v>1.6322223305016701</v>
+      </c>
+      <c r="D19">
+        <v>16.023452820785799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>-6</v>
+      </c>
+      <c r="B20">
+        <v>1.2745913390165799</v>
+      </c>
+      <c r="C20">
+        <v>1.27431347425962</v>
+      </c>
+      <c r="D20">
+        <v>9.7638898699070609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>-5.5</v>
+      </c>
+      <c r="B21">
+        <v>0.96900340314035704</v>
+      </c>
+      <c r="C21">
+        <v>0.96863624033374396</v>
+      </c>
+      <c r="D21">
+        <v>5.9359129977991598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>0.70961152553804996</v>
+      </c>
+      <c r="C22">
+        <v>0.70924449918796795</v>
+      </c>
+      <c r="D22">
+        <v>3.5991674418358599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="B23">
+        <v>0.49834574442072099</v>
+      </c>
+      <c r="C23">
+        <v>0.49802989320826402</v>
+      </c>
+      <c r="D23">
+        <v>2.1768678505349399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0.33637064395802502</v>
+      </c>
+      <c r="C24">
+        <v>0.33612618013342599</v>
+      </c>
+      <c r="D24">
+        <v>1.3145724092211699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="B25">
+        <v>0.219661674741333</v>
+      </c>
+      <c r="C25">
+        <v>0.219486794601605</v>
+      </c>
+      <c r="D25">
+        <v>0.79357744135322095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>-3</v>
+      </c>
+      <c r="B26">
+        <v>0.13991280586004601</v>
+      </c>
+      <c r="C26">
+        <v>0.13979460574531</v>
+      </c>
+      <c r="D26">
+        <v>0.47935003568078099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="B27">
+        <v>8.7571184178197398E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.7494352454296098E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.28982637858199201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B28">
+        <v>5.4175357573696598E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.4126687025216898E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.17540092134105101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>3.3264700799671698E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.3234374748988799E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.10623030953738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>2.0328932231452601E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.03102314827956E-2</v>
+      </c>
+      <c r="D30">
+        <v>6.4371469804314005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.2387194066701E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.2375736058378601E-2</v>
+      </c>
+      <c r="D31">
+        <v>3.9020277080581402E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>7.5343990687775902E-3</v>
+      </c>
+      <c r="C32">
+        <v>7.52740640627712E-3</v>
+      </c>
+      <c r="D32">
+        <v>2.3658363661027599E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>4.5776808430442904E-3</v>
+      </c>
+      <c r="C33">
+        <v>4.57342362137899E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.4346308704560299E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.7793964178670599E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.7768083831635699E-3</v>
+      </c>
+      <c r="D34">
+        <v>8.7002848019324102E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F98CB5-A127-3249-A206-D976CAA2767C}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>64.710453968770594</v>
+      </c>
+      <c r="C2">
+        <v>132.422830815217</v>
+      </c>
+      <c r="D2">
+        <v>80081.471852545306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>-14.5</v>
+      </c>
+      <c r="B3">
+        <v>47.358901408411498</v>
+      </c>
+      <c r="C3">
+        <v>84.582345226920907</v>
+      </c>
+      <c r="D3">
+        <v>43568.261718559603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>-14</v>
+      </c>
+      <c r="B4">
+        <v>37.3965862545652</v>
+      </c>
+      <c r="C4">
+        <v>56.6217440414067</v>
+      </c>
+      <c r="D4">
+        <v>21512.641058118301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>-13.5</v>
+      </c>
+      <c r="B5">
+        <v>31.119284876662</v>
+      </c>
+      <c r="C5">
+        <v>40.423246109684399</v>
+      </c>
+      <c r="D5">
+        <v>13504.645955764399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <v>26.1966694853466</v>
+      </c>
+      <c r="C6">
+        <v>30.5242307941297</v>
+      </c>
+      <c r="D6">
+        <v>9040.2218500320905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="B7">
+        <v>21.6079157841457</v>
+      </c>
+      <c r="C7">
+        <v>23.6158748022211</v>
+      </c>
+      <c r="D7">
+        <v>5513.1708943972499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>-12</v>
+      </c>
+      <c r="B8">
+        <v>17.231487345287299</v>
+      </c>
+      <c r="C8">
+        <v>18.186503829476599</v>
+      </c>
+      <c r="D8">
+        <v>3372.3815337894698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>-11.5</v>
+      </c>
+      <c r="B9">
+        <v>13.3680404702211</v>
+      </c>
+      <c r="C9">
+        <v>13.8369601871653</v>
+      </c>
+      <c r="D9">
+        <v>2077.5426581755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>-11</v>
+      </c>
+      <c r="B10">
+        <v>10.318060751003401</v>
+      </c>
+      <c r="C10">
+        <v>10.552449579672301</v>
+      </c>
+      <c r="D10">
+        <v>1291.47423735968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>-10.5</v>
+      </c>
+      <c r="B11">
+        <v>8.1369464495527595</v>
+      </c>
+      <c r="C11">
+        <v>8.2529213907168497</v>
+      </c>
+      <c r="D11">
+        <v>808.89353204060603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>6.6355817997379498</v>
+      </c>
+      <c r="C12">
+        <v>6.6909775794212702</v>
+      </c>
+      <c r="D12">
+        <v>508.03001808535299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="B13">
+        <v>5.5443278581818998</v>
+      </c>
+      <c r="C13">
+        <v>5.5695711113175701</v>
+      </c>
+      <c r="D13">
+        <v>318.15860035316098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>-9</v>
+      </c>
+      <c r="B14">
+        <v>4.6609164664473504</v>
+      </c>
+      <c r="C14">
+        <v>4.6717773222450498</v>
+      </c>
+      <c r="D14">
+        <v>197.99821955360301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="B15">
+        <v>3.8853728384481001</v>
+      </c>
+      <c r="C15">
+        <v>3.8896218957300599</v>
+      </c>
+      <c r="D15">
+        <v>122.409909319809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>-8</v>
+      </c>
+      <c r="B16">
+        <v>3.1887739609694599</v>
+      </c>
+      <c r="C16">
+        <v>3.1900877281398099</v>
+      </c>
+      <c r="D16">
+        <v>75.254006476953293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>-7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.5767933787535502</v>
+      </c>
+      <c r="C17">
+        <v>2.57687757246741</v>
+      </c>
+      <c r="D17">
+        <v>46.079072426815401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>-7</v>
+      </c>
+      <c r="B18">
+        <v>2.0597387606015198</v>
+      </c>
+      <c r="C18">
+        <v>2.05936391109219</v>
+      </c>
+      <c r="D18">
+        <v>28.135124923741301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="B19">
+        <v>1.6322598815917599</v>
+      </c>
+      <c r="C19">
+        <v>1.6317457670890401</v>
+      </c>
+      <c r="D19">
+        <v>17.144490548346798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>-6</v>
+      </c>
+      <c r="B20">
+        <v>1.2745913390165799</v>
+      </c>
+      <c r="C20">
+        <v>1.2740567090643999</v>
+      </c>
+      <c r="D20">
+        <v>10.429664241671601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>-5.5</v>
+      </c>
+      <c r="B21">
+        <v>0.96900340314036104</v>
+      </c>
+      <c r="C21">
+        <v>0.96849883004331005</v>
+      </c>
+      <c r="D21">
+        <v>6.3332187638476203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>0.70961152553805096</v>
+      </c>
+      <c r="C22">
+        <v>0.70917016542893596</v>
+      </c>
+      <c r="D22">
+        <v>3.8374534304566001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="B23">
+        <v>0.49834574442072099</v>
+      </c>
+      <c r="C23">
+        <v>0.49798877737292901</v>
+      </c>
+      <c r="D23">
+        <v>2.32035318059686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0.33637064395802502</v>
+      </c>
+      <c r="C24">
+        <v>0.33610286301673797</v>
+      </c>
+      <c r="D24">
+        <v>1.4011939039662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="B25">
+        <v>0.219661674741333</v>
+      </c>
+      <c r="C25">
+        <v>0.21947328254010801</v>
+      </c>
+      <c r="D25">
+        <v>0.84597344100778504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>-3</v>
+      </c>
+      <c r="B26">
+        <v>0.13991280586004601</v>
+      </c>
+      <c r="C26">
+        <v>0.139786648754534</v>
+      </c>
+      <c r="D26">
+        <v>0.51108050676695804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="B27">
+        <v>8.7571184178197398E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.7489615200546197E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.30905477398945802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B28">
+        <v>5.4175357573696598E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.4123846644771802E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.18705752820658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>3.3264700799671698E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.3232664113063699E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.113298258357374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>2.0328932231452601E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.0309198402729298E-2</v>
+      </c>
+      <c r="D30">
+        <v>6.8657633594426601E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.2387194066701E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.2375111110373699E-2</v>
+      </c>
+      <c r="D31">
+        <v>4.1619686621530101E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>7.5343990687775902E-3</v>
+      </c>
+      <c r="C32">
+        <v>7.5270279621794303E-3</v>
+      </c>
+      <c r="D32">
+        <v>2.5234883914038098E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>4.5776808430442904E-3</v>
+      </c>
+      <c r="C33">
+        <v>4.57319430642277E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.5302479519974099E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.7793964178670599E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.77666937865587E-3</v>
+      </c>
+      <c r="D34">
+        <v>9.2802181352880098E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9528B36D-E9C0-1F48-9747-5404970532C3}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -1627,7 +3617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E134E6A-C616-4A44-A3E3-43852ED882AB}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -2124,7 +4114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0E55F2-342E-1F4B-87D7-4204801E44FA}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -2621,7 +4611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC5E1CD-A917-1841-A8F3-05E961C4F86F}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -3118,11 +5108,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2151F08C-173B-8846-91E0-E72E49716972}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3616,6 +5606,2769 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA04111-3C39-FA48-A338-65032CD6A88D}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>-15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.3971526488289898</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.3547187250161699</v>
+      </c>
+      <c r="F2" s="4">
+        <v>105.138324534145</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>-14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.3971165219636399</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.3546846440474201</v>
+      </c>
+      <c r="F3" s="4">
+        <v>105.135317993415</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>-13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.3970183268216601</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.3545920096501001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>105.127145972995</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>-12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.3967514628146498</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.3543402570377201</v>
+      </c>
+      <c r="F5" s="4">
+        <v>105.104936585153</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>-11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.3960264800231399</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.3536563196930298</v>
+      </c>
+      <c r="F6" s="4">
+        <v>105.044598200759</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.3940589359707301</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.3518001157087398</v>
+      </c>
+      <c r="F7" s="4">
+        <v>104.88082495393699</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.2669553782045102</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.2328387018448499</v>
+      </c>
+      <c r="F8" s="4">
+        <v>87.970091228184401</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.26437177171193</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.2303807821341599</v>
+      </c>
+      <c r="F9" s="4">
+        <v>87.778677142232198</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.26013007171567</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.22634511909322</v>
+      </c>
+      <c r="F10" s="4">
+        <v>87.464360592873504</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>-8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.2531851052330798</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.21973665177268</v>
+      </c>
+      <c r="F11" s="4">
+        <v>86.949577115626994</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>-7.5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.2418647534103999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.2089625068857499</v>
+      </c>
+      <c r="F12" s="4">
+        <v>86.110093743059196</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.24280458204644</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.2111004120499498</v>
+      </c>
+      <c r="F13" s="4">
+        <v>81.389065480255596</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>-6.5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.2142009211098399</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.1837957129503902</v>
+      </c>
+      <c r="F14" s="4">
+        <v>79.381726552616797</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.1650267845678202</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.13730457465569</v>
+      </c>
+      <c r="F15" s="4">
+        <v>74.151632081779397</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>-5.5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.0984987062670299</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.0735554356556598</v>
+      </c>
+      <c r="F16" s="4">
+        <v>69.616398185807697</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.75109228814516</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.7377660562500199</v>
+      </c>
+      <c r="F17" s="4">
+        <v>42.962962931586098</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.6683208122473301</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.65701160997782</v>
+      </c>
+      <c r="F18" s="4">
+        <v>39.082397150018203</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>-4</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.5449173705583099</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.5362098800649699</v>
+      </c>
+      <c r="F19" s="4">
+        <v>31.739201105533901</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.3958037187391401</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.3895794533335999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>25.486930726685799</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>-3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.1480306060482901</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.14430622156054</v>
+      </c>
+      <c r="F21" s="4">
+        <v>17.3438747819485</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.96682457405728395</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.96452297619310701</v>
+      </c>
+      <c r="F22" s="4">
+        <v>12.342357169814001</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.77393885798057904</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.77255593957915802</v>
+      </c>
+      <c r="F23" s="4">
+        <v>8.1755682027626602</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.573553040441524</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.57273427352112205</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5.1262469765820304</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.41607281969849702</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.41556499175224398</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.2423763277264999</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.28651364461655499</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.28621343443308001</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.0016610374025099</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.19139645610816</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.19120645134752101</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.23774129905207</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.12450435331149701</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.12439220679709199</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.76559162887868104</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7.4742650245478298E-2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7.4672936194417894E-2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.45477069951260701</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327860BC-8AA7-E94B-8F88-317CE1A86311}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>-15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3971526488289898</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.3805424402836999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>125.640125968706</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>-14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.3971165219636399</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.3805070457772599</v>
+      </c>
+      <c r="F3" s="1">
+        <v>125.636568135377</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>-13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.3970183268216601</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.3804108411773099</v>
+      </c>
+      <c r="F4" s="1">
+        <v>125.62689762155399</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>-12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.3967514628146498</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.3801493864297498</v>
+      </c>
+      <c r="F5" s="1">
+        <v>125.600615462362</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>-11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3960264800231399</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.3794390957531899</v>
+      </c>
+      <c r="F6" s="1">
+        <v>125.52921024502299</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.3940589359707301</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.37751140213462</v>
+      </c>
+      <c r="F7" s="1">
+        <v>125.335384553453</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-9.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.2669553782045102</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.2536598220270498</v>
+      </c>
+      <c r="F8" s="1">
+        <v>104.139730945012</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.26437177171193</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.2511206096663199</v>
+      </c>
+      <c r="F9" s="1">
+        <v>103.91341785458501</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>-8.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.26013007171567</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.2469516670479801</v>
+      </c>
+      <c r="F10" s="1">
+        <v>103.54173187903901</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.2531851052330798</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.2401254816097</v>
+      </c>
+      <c r="F11" s="1">
+        <v>102.932820553581</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.2418647534103999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.22899781557344</v>
+      </c>
+      <c r="F12" s="1">
+        <v>101.939384198583</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.24280458204644</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.2285622443586202</v>
+      </c>
+      <c r="F13" s="1">
+        <v>95.815501737579396</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.2142009211098399</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.2004878260150602</v>
+      </c>
+      <c r="F14" s="1">
+        <v>93.437904279415505</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.1650267845678202</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.1521677607761101</v>
+      </c>
+      <c r="F15" s="1">
+        <v>87.077207959248696</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>-5.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0984987062670299</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.08678100922923</v>
+      </c>
+      <c r="F16" s="1">
+        <v>81.689119383078406</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.75109228814516</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.74540866742201</v>
+      </c>
+      <c r="F17" s="1">
+        <v>48.7302406897605</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6683208122473301</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.6633672621066899</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44.220658101547599</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.5449173705583099</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.5406779638065</v>
+      </c>
+      <c r="F19" s="1">
+        <v>35.665401821267601</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.3958037187391401</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.3925166421488799</v>
+      </c>
+      <c r="F20" s="1">
+        <v>28.3591953548985</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.1480306060482901</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1460656396786799</v>
+      </c>
+      <c r="F21" s="1">
+        <v>18.928924052639498</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.96682457405728395</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.96545061438733004</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13.2513801912867</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.77393885798057904</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.773020798946076</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.6148952816813509</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.573553040441524</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.572992933817705</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.3250630523056204</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.41607281969849702</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.41570661050172403</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.33377208458429</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.28651364461655499</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.28628530180643103</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.0427115528054398</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.19139645610816</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.19124577867057299</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.2571526815374701</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.12450435331149701</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.124413441566568</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.77596197579943205</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.4742650245478298E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.4687940076348103E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.45960412144552198</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5A2F16-BD70-154C-848D-E181152C8A9C}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>-15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3971526488289898</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.3816695918807702</v>
+      </c>
+      <c r="F2" s="1">
+        <v>126.147106976393</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>-14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.3971165219636399</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.3816340882435698</v>
+      </c>
+      <c r="F3" s="1">
+        <v>126.143527212146</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>-13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.3970183268216601</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.38153758704834</v>
+      </c>
+      <c r="F4" s="1">
+        <v>126.133797088286</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>-12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.3967514628146498</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.3812753264617199</v>
+      </c>
+      <c r="F5" s="1">
+        <v>126.107352924563</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>-11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3960264800231399</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.38056284817034</v>
+      </c>
+      <c r="F6" s="1">
+        <v>126.03550757213</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.3940589359707301</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.37862922924832</v>
+      </c>
+      <c r="F7" s="1">
+        <v>125.840487233148</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-9.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.2669553782045102</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.2544642558608099</v>
+      </c>
+      <c r="F8" s="1">
+        <v>104.503877491708</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.26437177171193</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.2519188303389801</v>
+      </c>
+      <c r="F9" s="1">
+        <v>104.276323654783</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>-8.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.26013007171567</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.2477397458928099</v>
+      </c>
+      <c r="F10" s="1">
+        <v>103.902600737843</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.2531851052330798</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.24089711308023</v>
+      </c>
+      <c r="F11" s="1">
+        <v>103.290354621201</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.2418647534103999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.2297430586539799</v>
+      </c>
+      <c r="F12" s="1">
+        <v>102.29148370508</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.24280458204644</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.2291976682574202</v>
+      </c>
+      <c r="F13" s="1">
+        <v>96.128364686961703</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.2142009211098399</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.2010692042924398</v>
+      </c>
+      <c r="F14" s="1">
+        <v>93.738312111337706</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.1650267845678202</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.1526489549433299</v>
+      </c>
+      <c r="F15" s="1">
+        <v>87.349053775685803</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>-5.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0984987062670299</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.0871626995589199</v>
+      </c>
+      <c r="F16" s="1">
+        <v>81.933605113693602</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.75109228814516</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.7456239234936299</v>
+      </c>
+      <c r="F17" s="1">
+        <v>48.836429935729299</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6683208122473301</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.66352105829805</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44.310373484254399</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.5449173705583099</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.54077036643374</v>
+      </c>
+      <c r="F19" s="1">
+        <v>35.730895927038297</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.3958037187391401</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.39256559715433</v>
+      </c>
+      <c r="F20" s="1">
+        <v>28.402650096587902</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.1480306060482901</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1460910304026</v>
+      </c>
+      <c r="F21" s="1">
+        <v>18.9520739984168</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.96682457405728395</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.96546099671931196</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13.2614724947863</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.77393885798057904</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.77302574924742296</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.6196430681759697</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.573553040441524</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.572995852205051</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.3265335897556501</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.41607281969849702</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.41570739242098498</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.33446973418816</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.28651364461655499</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.28628594526696499</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.0429769568259801</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.19139645610816</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.19124624085104</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.25736792952579</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.12450435331149701</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.124413970311453</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.77621765500879203</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.4742650245478298E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.4688022173012694E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.45963791283298799</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EE7633-A005-F94D-B73C-08EA307A6712}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>-15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.2593597096132698</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.2407471986785401</v>
+      </c>
+      <c r="F2" s="1">
+        <v>103.723603941116</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>-14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.2593313785689899</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.24071950472272</v>
+      </c>
+      <c r="F3" s="1">
+        <v>103.721229471851</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>-13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.2592543717973599</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.2406442296225002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>103.714775354639</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>-12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.25904508256346</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2404396467131198</v>
+      </c>
+      <c r="F5" s="1">
+        <v>103.697233900604</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>-11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.25847644778126</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.2398837987948199</v>
+      </c>
+      <c r="F6" s="1">
+        <v>103.649570900291</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.2569327479946399</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.2383748111425001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>103.520154245504</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.1829283621718201</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.1672798887617799</v>
+      </c>
+      <c r="F8" s="1">
+        <v>92.337760086973404</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.1806998020794102</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.1650950235578499</v>
+      </c>
+      <c r="F9" s="1">
+        <v>92.162528556705993</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>-8.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.1770392299258998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.1615062092217698</v>
+      </c>
+      <c r="F10" s="1">
+        <v>91.874580964869693</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>-8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1710409611723702</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.1556254834962201</v>
+      </c>
+      <c r="F11" s="1">
+        <v>91.402433503287</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>-7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.2034742201208002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.18635785134247</v>
+      </c>
+      <c r="F12" s="1">
+        <v>92.301920186674295</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.1431430763669401</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.1277277251701001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>85.106649780293196</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>-6.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.1188880094622999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.1039503322397102</v>
+      </c>
+      <c r="F14" s="1">
+        <v>83.259208241699397</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.92167844622286</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.91165362578233</v>
+      </c>
+      <c r="F15" s="1">
+        <v>61.385105070925697</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>-5.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.88245290666028</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.87297007421416</v>
+      </c>
+      <c r="F16" s="1">
+        <v>58.771333145706699</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.81741398678037</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.80879902884527</v>
+      </c>
+      <c r="F17" s="1">
+        <v>54.823849396655</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.7220092428266001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.71463168922886</v>
+      </c>
+      <c r="F18" s="1">
+        <v>49.0771320860012</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.51040562946039</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.5055889338852499</v>
+      </c>
+      <c r="F19" s="1">
+        <v>33.887287628179003</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.3621154044670301</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.3585744618212201</v>
+      </c>
+      <c r="F20" s="1">
+        <v>27.2527511793079</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>-3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.1697644877052999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1674700645386</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19.498418046836701</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.96765280761038197</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.96612304273317495</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13.2351251121072</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.75426096741535098</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.75332555273591195</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.4188902682313902</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.58581735759714504</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.58521434977999398</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.4656488546029802</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.41422978857730403</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.41385412727632398</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.3142229540352699</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.28896114359249497</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.288730709092827</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.0420694468974401</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.19916479332617201</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.19901691755057399</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.2703943189684701</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.120160399925287</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.120072695166085</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.75765644359648798</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.4742650245478298E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.46876345466609E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.45943538016146501</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47FE235-FB5A-6742-8278-3F0768331761}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -4306,7 +9059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06114EF-9307-CD4C-B26D-6BD15F89F148}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -4996,7 +9749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35230064-1173-B648-878D-EED7AD27A329}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -5686,7 +10439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D5EFB7-CB18-8940-B6BF-95F11BD87189}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -6374,1990 +11127,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E8BDC0-1C7A-494E-8238-3B1FFEFD3280}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>-15</v>
-      </c>
-      <c r="B2">
-        <v>64.710453960084294</v>
-      </c>
-      <c r="C2">
-        <v>137.467285687258</v>
-      </c>
-      <c r="D2">
-        <v>73350.218222851996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>-14.5</v>
-      </c>
-      <c r="B3">
-        <v>47.358901410182902</v>
-      </c>
-      <c r="C3">
-        <v>87.740626916371298</v>
-      </c>
-      <c r="D3">
-        <v>37034.041855441297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="B4">
-        <v>37.396586255028403</v>
-      </c>
-      <c r="C4">
-        <v>58.569969366968003</v>
-      </c>
-      <c r="D4">
-        <v>18923.4898730854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>-13.5</v>
-      </c>
-      <c r="B5">
-        <v>31.119284876986399</v>
-      </c>
-      <c r="C5">
-        <v>41.643939405107197</v>
-      </c>
-      <c r="D5">
-        <v>15607.1188757086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <v>26.1966694853954</v>
-      </c>
-      <c r="C6">
-        <v>31.3509069565605</v>
-      </c>
-      <c r="D6">
-        <v>9860.8835247557399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>-12.5</v>
-      </c>
-      <c r="B7">
-        <v>21.607915784087201</v>
-      </c>
-      <c r="C7">
-        <v>24.2544324741034</v>
-      </c>
-      <c r="D7">
-        <v>6448.40116055408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>-12</v>
-      </c>
-      <c r="B8">
-        <v>17.231487345327199</v>
-      </c>
-      <c r="C8">
-        <v>18.739914689663198</v>
-      </c>
-      <c r="D8">
-        <v>4457.6550788536997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>-11.5</v>
-      </c>
-      <c r="B9">
-        <v>13.368040470232399</v>
-      </c>
-      <c r="C9">
-        <v>14.3345061544674</v>
-      </c>
-      <c r="D9">
-        <v>3234.2691606436001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>-11</v>
-      </c>
-      <c r="B10">
-        <v>10.318060751006501</v>
-      </c>
-      <c r="C10">
-        <v>10.977445393352101</v>
-      </c>
-      <c r="D10">
-        <v>2388.48951838328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>-10.5</v>
-      </c>
-      <c r="B11">
-        <v>8.1369464495544399</v>
-      </c>
-      <c r="C11">
-        <v>8.5771482095101099</v>
-      </c>
-      <c r="D11">
-        <v>1737.43416926294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>6.6355817997379303</v>
-      </c>
-      <c r="C12">
-        <v>6.9076617020919597</v>
-      </c>
-      <c r="D12">
-        <v>1221.77383330874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>-9.5</v>
-      </c>
-      <c r="B13">
-        <v>5.5443278581826698</v>
-      </c>
-      <c r="C13">
-        <v>5.69902468102062</v>
-      </c>
-      <c r="D13">
-        <v>827.30163458462505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>-9</v>
-      </c>
-      <c r="B14">
-        <v>4.6609164664469596</v>
-      </c>
-      <c r="C14">
-        <v>4.7435575192744599</v>
-      </c>
-      <c r="D14">
-        <v>541.99131464977404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>-8.5</v>
-      </c>
-      <c r="B15">
-        <v>3.8853728384480699</v>
-      </c>
-      <c r="C15">
-        <v>3.9278054568077101</v>
-      </c>
-      <c r="D15">
-        <v>346.19719186510798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>-8</v>
-      </c>
-      <c r="B16">
-        <v>3.1887739609694798</v>
-      </c>
-      <c r="C16">
-        <v>3.2099715250642902</v>
-      </c>
-      <c r="D16">
-        <v>217.242184584847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>-7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.5767933787535502</v>
-      </c>
-      <c r="C17">
-        <v>2.5870876620116801</v>
-      </c>
-      <c r="D17">
-        <v>134.69114327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>-7</v>
-      </c>
-      <c r="B18">
-        <v>2.0597387606014999</v>
-      </c>
-      <c r="C18">
-        <v>2.0645300091955199</v>
-      </c>
-      <c r="D18">
-        <v>82.856481712010293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>-6.5</v>
-      </c>
-      <c r="B19">
-        <v>1.6322598815917799</v>
-      </c>
-      <c r="C19">
-        <v>1.63432419412193</v>
-      </c>
-      <c r="D19">
-        <v>50.712330885779899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>-6</v>
-      </c>
-      <c r="B20">
-        <v>1.2745913390165799</v>
-      </c>
-      <c r="C20">
-        <v>1.2753389327229201</v>
-      </c>
-      <c r="D20">
-        <v>30.934002735055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>-5.5</v>
-      </c>
-      <c r="B21">
-        <v>0.96900340314036204</v>
-      </c>
-      <c r="C21">
-        <v>0.96914445803730498</v>
-      </c>
-      <c r="D21">
-        <v>18.823846023899101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>-5</v>
-      </c>
-      <c r="B22">
-        <v>0.70961152553804996</v>
-      </c>
-      <c r="C22">
-        <v>0.70950395634953101</v>
-      </c>
-      <c r="D22">
-        <v>11.433366156055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>-4.5</v>
-      </c>
-      <c r="B23">
-        <v>0.49834574442071999</v>
-      </c>
-      <c r="C23">
-        <v>0.498167203731884</v>
-      </c>
-      <c r="D23">
-        <v>6.93478955077964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>-4</v>
-      </c>
-      <c r="B24">
-        <v>0.33637064395802502</v>
-      </c>
-      <c r="C24">
-        <v>0.33620146185112199</v>
-      </c>
-      <c r="D24">
-        <v>4.2026227731355403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>-3.5</v>
-      </c>
-      <c r="B25">
-        <v>0.219661674741333</v>
-      </c>
-      <c r="C25">
-        <v>0.21952933640976199</v>
-      </c>
-      <c r="D25">
-        <v>2.5460739368448002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>-3</v>
-      </c>
-      <c r="B26">
-        <v>0.13991280586004601</v>
-      </c>
-      <c r="C26">
-        <v>0.13981921463248101</v>
-      </c>
-      <c r="D26">
-        <v>1.5425856506467901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>-2.5</v>
-      </c>
-      <c r="B27">
-        <v>8.7571184178197398E-2</v>
-      </c>
-      <c r="C27">
-        <v>8.7508827465291997E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.93481820350404998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>-2</v>
-      </c>
-      <c r="B28">
-        <v>5.4175357573696598E-2</v>
-      </c>
-      <c r="C28">
-        <v>5.4135297785156099E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.56664733142852697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>-1.5</v>
-      </c>
-      <c r="B29">
-        <v>3.3264700799671698E-2</v>
-      </c>
-      <c r="C29">
-        <v>3.3239534678173699E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.343554596858197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>-1</v>
-      </c>
-      <c r="B30">
-        <v>2.0328932231452601E-2</v>
-      </c>
-      <c r="C30">
-        <v>2.0313337894971799E-2</v>
-      </c>
-      <c r="D30">
-        <v>0.20844881767878501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1.2387194066701E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.2377611606722801E-2</v>
-      </c>
-      <c r="D31">
-        <v>0.12645799285237999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>7.5343990687775902E-3</v>
-      </c>
-      <c r="C32">
-        <v>7.5285408173208701E-3</v>
-      </c>
-      <c r="D32">
-        <v>7.6710900552612302E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>4.5776808430442904E-3</v>
-      </c>
-      <c r="C33">
-        <v>4.5741105097660698E-3</v>
-      </c>
-      <c r="D33">
-        <v>4.6531323508958097E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2.7793964178670599E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.77722457242695E-3</v>
-      </c>
-      <c r="D34">
-        <v>2.8224084996253299E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C15C16D-3F3A-4445-952C-79188DBCF960}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>-15</v>
-      </c>
-      <c r="B2">
-        <v>64.710453965740996</v>
-      </c>
-      <c r="C2">
-        <v>64.374693240488298</v>
-      </c>
-      <c r="D2">
-        <v>103.899437179947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>-14.5</v>
-      </c>
-      <c r="B3">
-        <v>47.358901408389698</v>
-      </c>
-      <c r="C3">
-        <v>47.266530981678599</v>
-      </c>
-      <c r="D3">
-        <v>108.68710669133399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="B4">
-        <v>37.396586255235597</v>
-      </c>
-      <c r="C4">
-        <v>37.437771050930202</v>
-      </c>
-      <c r="D4">
-        <v>89.943650606707905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>-13.5</v>
-      </c>
-      <c r="B5">
-        <v>31.119284876934501</v>
-      </c>
-      <c r="C5">
-        <v>31.215510319734399</v>
-      </c>
-      <c r="D5">
-        <v>60.824665245979403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <v>26.196669485063602</v>
-      </c>
-      <c r="C6">
-        <v>26.305101585084099</v>
-      </c>
-      <c r="D6">
-        <v>32.182602796629197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>-12.5</v>
-      </c>
-      <c r="B7">
-        <v>21.607915784178601</v>
-      </c>
-      <c r="C7">
-        <v>21.7101217769942</v>
-      </c>
-      <c r="D7">
-        <v>14.5706609762497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>-12</v>
-      </c>
-      <c r="B8">
-        <v>17.231487345287398</v>
-      </c>
-      <c r="C8">
-        <v>17.321182272848599</v>
-      </c>
-      <c r="D8">
-        <v>14.4538605931661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>-11.5</v>
-      </c>
-      <c r="B9">
-        <v>13.368040470210399</v>
-      </c>
-      <c r="C9">
-        <v>13.4441713118261</v>
-      </c>
-      <c r="D9">
-        <v>14.314993996967999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>-11</v>
-      </c>
-      <c r="B10">
-        <v>10.3180607510117</v>
-      </c>
-      <c r="C10">
-        <v>10.381439912662</v>
-      </c>
-      <c r="D10">
-        <v>14.095793248931599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>-10.5</v>
-      </c>
-      <c r="B11">
-        <v>8.1369464495507309</v>
-      </c>
-      <c r="C11">
-        <v>8.1885206297859199</v>
-      </c>
-      <c r="D11">
-        <v>13.7698775505441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>6.6355817997396001</v>
-      </c>
-      <c r="C12">
-        <v>6.6759668839578499</v>
-      </c>
-      <c r="D12">
-        <v>13.318072348701101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>-9.5</v>
-      </c>
-      <c r="B13">
-        <v>5.5443278581821396</v>
-      </c>
-      <c r="C13">
-        <v>5.5741823674757196</v>
-      </c>
-      <c r="D13">
-        <v>12.7126253859533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>-9</v>
-      </c>
-      <c r="B14">
-        <v>4.6609164664471203</v>
-      </c>
-      <c r="C14">
-        <v>4.6813240365431996</v>
-      </c>
-      <c r="D14">
-        <v>11.923100371571801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>-8.5</v>
-      </c>
-      <c r="B15">
-        <v>3.8853728384480202</v>
-      </c>
-      <c r="C15">
-        <v>3.8978658411209</v>
-      </c>
-      <c r="D15">
-        <v>10.939948950629599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>-8</v>
-      </c>
-      <c r="B16">
-        <v>3.1887739609693901</v>
-      </c>
-      <c r="C16">
-        <v>3.1950964581093202</v>
-      </c>
-      <c r="D16">
-        <v>9.78404960131218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>-7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.5767933787535702</v>
-      </c>
-      <c r="C17">
-        <v>2.5786792454327001</v>
-      </c>
-      <c r="D17">
-        <v>8.50664907867138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>-7</v>
-      </c>
-      <c r="B18">
-        <v>2.05973876060153</v>
-      </c>
-      <c r="C18">
-        <v>2.0588407705914298</v>
-      </c>
-      <c r="D18">
-        <v>7.1665449817226401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>-6.5</v>
-      </c>
-      <c r="B19">
-        <v>1.6322598815917699</v>
-      </c>
-      <c r="C19">
-        <v>1.6300688381722701</v>
-      </c>
-      <c r="D19">
-        <v>5.8155195158713298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>-6</v>
-      </c>
-      <c r="B20">
-        <v>1.2745913390165899</v>
-      </c>
-      <c r="C20">
-        <v>1.2722253985246601</v>
-      </c>
-      <c r="D20">
-        <v>4.5146218651268502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>-5.5</v>
-      </c>
-      <c r="B21">
-        <v>0.96900340314036204</v>
-      </c>
-      <c r="C21">
-        <v>0.96705610266397302</v>
-      </c>
-      <c r="D21">
-        <v>3.3419494083579599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>-5</v>
-      </c>
-      <c r="B22">
-        <v>0.70961152553804996</v>
-      </c>
-      <c r="C22">
-        <v>0.70823146121974001</v>
-      </c>
-      <c r="D22">
-        <v>2.36279721904075</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>-4.5</v>
-      </c>
-      <c r="B23">
-        <v>0.49834574442072099</v>
-      </c>
-      <c r="C23">
-        <v>0.49744873219571201</v>
-      </c>
-      <c r="D23">
-        <v>1.6045702091407299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>-4</v>
-      </c>
-      <c r="B24">
-        <v>0.33637064395802502</v>
-      </c>
-      <c r="C24">
-        <v>0.33581369072425499</v>
-      </c>
-      <c r="D24">
-        <v>1.05430147890528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>-3.5</v>
-      </c>
-      <c r="B25">
-        <v>0.219661674741333</v>
-      </c>
-      <c r="C25">
-        <v>0.21932289886131001</v>
-      </c>
-      <c r="D25">
-        <v>0.67525061119599805</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>-3</v>
-      </c>
-      <c r="B26">
-        <v>0.13991280586004601</v>
-      </c>
-      <c r="C26">
-        <v>0.13970819126355599</v>
-      </c>
-      <c r="D26">
-        <v>0.42453384610929801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>-2.5</v>
-      </c>
-      <c r="B27">
-        <v>8.7571184178197398E-2</v>
-      </c>
-      <c r="C27">
-        <v>8.74477381332079E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.263481858257197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>-2</v>
-      </c>
-      <c r="B28">
-        <v>5.4175357573696598E-2</v>
-      </c>
-      <c r="C28">
-        <v>5.4100813757540299E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.16213831307521001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>-1.5</v>
-      </c>
-      <c r="B29">
-        <v>3.3264700799671698E-2</v>
-      </c>
-      <c r="C29">
-        <v>3.3219630367152003E-2</v>
-      </c>
-      <c r="D29">
-        <v>9.9224719098955902E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>-1</v>
-      </c>
-      <c r="B30">
-        <v>2.0328932231452601E-2</v>
-      </c>
-      <c r="C30">
-        <v>2.0301653121847101E-2</v>
-      </c>
-      <c r="D30">
-        <v>6.0513750482993303E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1.2387194066701E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.23706707514348E-2</v>
-      </c>
-      <c r="D31">
-        <v>3.68278174009972E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>7.5343990687775902E-3</v>
-      </c>
-      <c r="C32">
-        <v>7.5243856375790397E-3</v>
-      </c>
-      <c r="D32">
-        <v>2.2383522503943699E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>4.5776808430442904E-3</v>
-      </c>
-      <c r="C33">
-        <v>4.5716105636685401E-3</v>
-      </c>
-      <c r="D33">
-        <v>1.3593407492962201E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2.7793964178670599E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.7757157881264601E-3</v>
-      </c>
-      <c r="D34">
-        <v>8.25113119340414E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A5F18C-CB85-7E49-B60E-1D3620CA95E5}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>-15</v>
-      </c>
-      <c r="B2">
-        <v>64.710453962454395</v>
-      </c>
-      <c r="C2">
-        <v>130.64812984124501</v>
-      </c>
-      <c r="D2">
-        <v>70520.551238214597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>-14.5</v>
-      </c>
-      <c r="B3">
-        <v>47.358901410860199</v>
-      </c>
-      <c r="C3">
-        <v>83.567097120424606</v>
-      </c>
-      <c r="D3">
-        <v>47514.918929106898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="B4">
-        <v>37.396586255130302</v>
-      </c>
-      <c r="C4">
-        <v>56.1802675929233</v>
-      </c>
-      <c r="D4">
-        <v>25542.7577022447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>-13.5</v>
-      </c>
-      <c r="B5">
-        <v>31.119284876208901</v>
-      </c>
-      <c r="C5">
-        <v>40.3478998645814</v>
-      </c>
-      <c r="D5">
-        <v>12316.614680655501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <v>26.196669485326201</v>
-      </c>
-      <c r="C6">
-        <v>30.626180735503699</v>
-      </c>
-      <c r="D6">
-        <v>8397.3225179915007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>-12.5</v>
-      </c>
-      <c r="B7">
-        <v>21.607915784046</v>
-      </c>
-      <c r="C7">
-        <v>23.767465305349901</v>
-      </c>
-      <c r="D7">
-        <v>5617.0843277070999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>-12</v>
-      </c>
-      <c r="B8">
-        <v>17.231487345322702</v>
-      </c>
-      <c r="C8">
-        <v>18.324959148078701</v>
-      </c>
-      <c r="D8">
-        <v>3427.0933770945198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>-11.5</v>
-      </c>
-      <c r="B9">
-        <v>13.368040470237601</v>
-      </c>
-      <c r="C9">
-        <v>13.941773863116699</v>
-      </c>
-      <c r="D9">
-        <v>2079.1327750769401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>-11</v>
-      </c>
-      <c r="B10">
-        <v>10.3180607510067</v>
-      </c>
-      <c r="C10">
-        <v>10.623625616996501</v>
-      </c>
-      <c r="D10">
-        <v>1265.95161549612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>-10.5</v>
-      </c>
-      <c r="B11">
-        <v>8.1369464495507895</v>
-      </c>
-      <c r="C11">
-        <v>8.2978364703592895</v>
-      </c>
-      <c r="D11">
-        <v>776.51925388227903</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>6.6355817997400601</v>
-      </c>
-      <c r="C12">
-        <v>6.71792652698959</v>
-      </c>
-      <c r="D12">
-        <v>479.66505807965501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>-9.5</v>
-      </c>
-      <c r="B13">
-        <v>5.5443278581829096</v>
-      </c>
-      <c r="C13">
-        <v>5.5851799442133503</v>
-      </c>
-      <c r="D13">
-        <v>297.326966804817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>-9</v>
-      </c>
-      <c r="B14">
-        <v>4.6609164664473903</v>
-      </c>
-      <c r="C14">
-        <v>4.6805838638297699</v>
-      </c>
-      <c r="D14">
-        <v>184.15673929385699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>-8.5</v>
-      </c>
-      <c r="B15">
-        <v>3.8853728384479602</v>
-      </c>
-      <c r="C15">
-        <v>3.8945232102342402</v>
-      </c>
-      <c r="D15">
-        <v>113.709435587926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>-8</v>
-      </c>
-      <c r="B16">
-        <v>3.1887739609694701</v>
-      </c>
-      <c r="C16">
-        <v>3.1928252382949101</v>
-      </c>
-      <c r="D16">
-        <v>69.948772685316698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>-7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.5767933787535502</v>
-      </c>
-      <c r="C17">
-        <v>2.5784207113437998</v>
-      </c>
-      <c r="D17">
-        <v>42.8972797519247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>-7</v>
-      </c>
-      <c r="B18">
-        <v>2.0597387606015198</v>
-      </c>
-      <c r="C18">
-        <v>2.0602301482873799</v>
-      </c>
-      <c r="D18">
-        <v>26.2425859577497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>-6.5</v>
-      </c>
-      <c r="B19">
-        <v>1.6322598815917599</v>
-      </c>
-      <c r="C19">
-        <v>1.6322223305016701</v>
-      </c>
-      <c r="D19">
-        <v>16.023452820785799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>-6</v>
-      </c>
-      <c r="B20">
-        <v>1.2745913390165799</v>
-      </c>
-      <c r="C20">
-        <v>1.27431347425962</v>
-      </c>
-      <c r="D20">
-        <v>9.7638898699070609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>-5.5</v>
-      </c>
-      <c r="B21">
-        <v>0.96900340314035704</v>
-      </c>
-      <c r="C21">
-        <v>0.96863624033374396</v>
-      </c>
-      <c r="D21">
-        <v>5.9359129977991598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>-5</v>
-      </c>
-      <c r="B22">
-        <v>0.70961152553804996</v>
-      </c>
-      <c r="C22">
-        <v>0.70924449918796795</v>
-      </c>
-      <c r="D22">
-        <v>3.5991674418358599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>-4.5</v>
-      </c>
-      <c r="B23">
-        <v>0.49834574442072099</v>
-      </c>
-      <c r="C23">
-        <v>0.49802989320826402</v>
-      </c>
-      <c r="D23">
-        <v>2.1768678505349399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>-4</v>
-      </c>
-      <c r="B24">
-        <v>0.33637064395802502</v>
-      </c>
-      <c r="C24">
-        <v>0.33612618013342599</v>
-      </c>
-      <c r="D24">
-        <v>1.3145724092211699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>-3.5</v>
-      </c>
-      <c r="B25">
-        <v>0.219661674741333</v>
-      </c>
-      <c r="C25">
-        <v>0.219486794601605</v>
-      </c>
-      <c r="D25">
-        <v>0.79357744135322095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>-3</v>
-      </c>
-      <c r="B26">
-        <v>0.13991280586004601</v>
-      </c>
-      <c r="C26">
-        <v>0.13979460574531</v>
-      </c>
-      <c r="D26">
-        <v>0.47935003568078099</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>-2.5</v>
-      </c>
-      <c r="B27">
-        <v>8.7571184178197398E-2</v>
-      </c>
-      <c r="C27">
-        <v>8.7494352454296098E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.28982637858199201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>-2</v>
-      </c>
-      <c r="B28">
-        <v>5.4175357573696598E-2</v>
-      </c>
-      <c r="C28">
-        <v>5.4126687025216898E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.17540092134105101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>-1.5</v>
-      </c>
-      <c r="B29">
-        <v>3.3264700799671698E-2</v>
-      </c>
-      <c r="C29">
-        <v>3.3234374748988799E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.10623030953738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>-1</v>
-      </c>
-      <c r="B30">
-        <v>2.0328932231452601E-2</v>
-      </c>
-      <c r="C30">
-        <v>2.03102314827956E-2</v>
-      </c>
-      <c r="D30">
-        <v>6.4371469804314005E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1.2387194066701E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.2375736058378601E-2</v>
-      </c>
-      <c r="D31">
-        <v>3.9020277080581402E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>7.5343990687775902E-3</v>
-      </c>
-      <c r="C32">
-        <v>7.52740640627712E-3</v>
-      </c>
-      <c r="D32">
-        <v>2.3658363661027599E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>4.5776808430442904E-3</v>
-      </c>
-      <c r="C33">
-        <v>4.57342362137899E-3</v>
-      </c>
-      <c r="D33">
-        <v>1.4346308704560299E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2.7793964178670599E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.7768083831635699E-3</v>
-      </c>
-      <c r="D34">
-        <v>8.7002848019324102E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F98CB5-A127-3249-A206-D976CAA2767C}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>-15</v>
-      </c>
-      <c r="B2">
-        <v>64.710453968770594</v>
-      </c>
-      <c r="C2">
-        <v>132.422830815217</v>
-      </c>
-      <c r="D2">
-        <v>80081.471852545306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>-14.5</v>
-      </c>
-      <c r="B3">
-        <v>47.358901408411498</v>
-      </c>
-      <c r="C3">
-        <v>84.582345226920907</v>
-      </c>
-      <c r="D3">
-        <v>43568.261718559603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="B4">
-        <v>37.3965862545652</v>
-      </c>
-      <c r="C4">
-        <v>56.6217440414067</v>
-      </c>
-      <c r="D4">
-        <v>21512.641058118301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>-13.5</v>
-      </c>
-      <c r="B5">
-        <v>31.119284876662</v>
-      </c>
-      <c r="C5">
-        <v>40.423246109684399</v>
-      </c>
-      <c r="D5">
-        <v>13504.645955764399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <v>26.1966694853466</v>
-      </c>
-      <c r="C6">
-        <v>30.5242307941297</v>
-      </c>
-      <c r="D6">
-        <v>9040.2218500320905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>-12.5</v>
-      </c>
-      <c r="B7">
-        <v>21.6079157841457</v>
-      </c>
-      <c r="C7">
-        <v>23.6158748022211</v>
-      </c>
-      <c r="D7">
-        <v>5513.1708943972499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>-12</v>
-      </c>
-      <c r="B8">
-        <v>17.231487345287299</v>
-      </c>
-      <c r="C8">
-        <v>18.186503829476599</v>
-      </c>
-      <c r="D8">
-        <v>3372.3815337894698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>-11.5</v>
-      </c>
-      <c r="B9">
-        <v>13.3680404702211</v>
-      </c>
-      <c r="C9">
-        <v>13.8369601871653</v>
-      </c>
-      <c r="D9">
-        <v>2077.5426581755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>-11</v>
-      </c>
-      <c r="B10">
-        <v>10.318060751003401</v>
-      </c>
-      <c r="C10">
-        <v>10.552449579672301</v>
-      </c>
-      <c r="D10">
-        <v>1291.47423735968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>-10.5</v>
-      </c>
-      <c r="B11">
-        <v>8.1369464495527595</v>
-      </c>
-      <c r="C11">
-        <v>8.2529213907168497</v>
-      </c>
-      <c r="D11">
-        <v>808.89353204060603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>6.6355817997379498</v>
-      </c>
-      <c r="C12">
-        <v>6.6909775794212702</v>
-      </c>
-      <c r="D12">
-        <v>508.03001808535299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>-9.5</v>
-      </c>
-      <c r="B13">
-        <v>5.5443278581818998</v>
-      </c>
-      <c r="C13">
-        <v>5.5695711113175701</v>
-      </c>
-      <c r="D13">
-        <v>318.15860035316098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>-9</v>
-      </c>
-      <c r="B14">
-        <v>4.6609164664473504</v>
-      </c>
-      <c r="C14">
-        <v>4.6717773222450498</v>
-      </c>
-      <c r="D14">
-        <v>197.99821955360301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>-8.5</v>
-      </c>
-      <c r="B15">
-        <v>3.8853728384481001</v>
-      </c>
-      <c r="C15">
-        <v>3.8896218957300599</v>
-      </c>
-      <c r="D15">
-        <v>122.409909319809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>-8</v>
-      </c>
-      <c r="B16">
-        <v>3.1887739609694599</v>
-      </c>
-      <c r="C16">
-        <v>3.1900877281398099</v>
-      </c>
-      <c r="D16">
-        <v>75.254006476953293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>-7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.5767933787535502</v>
-      </c>
-      <c r="C17">
-        <v>2.57687757246741</v>
-      </c>
-      <c r="D17">
-        <v>46.079072426815401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>-7</v>
-      </c>
-      <c r="B18">
-        <v>2.0597387606015198</v>
-      </c>
-      <c r="C18">
-        <v>2.05936391109219</v>
-      </c>
-      <c r="D18">
-        <v>28.135124923741301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>-6.5</v>
-      </c>
-      <c r="B19">
-        <v>1.6322598815917599</v>
-      </c>
-      <c r="C19">
-        <v>1.6317457670890401</v>
-      </c>
-      <c r="D19">
-        <v>17.144490548346798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>-6</v>
-      </c>
-      <c r="B20">
-        <v>1.2745913390165799</v>
-      </c>
-      <c r="C20">
-        <v>1.2740567090643999</v>
-      </c>
-      <c r="D20">
-        <v>10.429664241671601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>-5.5</v>
-      </c>
-      <c r="B21">
-        <v>0.96900340314036104</v>
-      </c>
-      <c r="C21">
-        <v>0.96849883004331005</v>
-      </c>
-      <c r="D21">
-        <v>6.3332187638476203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>-5</v>
-      </c>
-      <c r="B22">
-        <v>0.70961152553805096</v>
-      </c>
-      <c r="C22">
-        <v>0.70917016542893596</v>
-      </c>
-      <c r="D22">
-        <v>3.8374534304566001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>-4.5</v>
-      </c>
-      <c r="B23">
-        <v>0.49834574442072099</v>
-      </c>
-      <c r="C23">
-        <v>0.49798877737292901</v>
-      </c>
-      <c r="D23">
-        <v>2.32035318059686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>-4</v>
-      </c>
-      <c r="B24">
-        <v>0.33637064395802502</v>
-      </c>
-      <c r="C24">
-        <v>0.33610286301673797</v>
-      </c>
-      <c r="D24">
-        <v>1.4011939039662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>-3.5</v>
-      </c>
-      <c r="B25">
-        <v>0.219661674741333</v>
-      </c>
-      <c r="C25">
-        <v>0.21947328254010801</v>
-      </c>
-      <c r="D25">
-        <v>0.84597344100778504</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>-3</v>
-      </c>
-      <c r="B26">
-        <v>0.13991280586004601</v>
-      </c>
-      <c r="C26">
-        <v>0.139786648754534</v>
-      </c>
-      <c r="D26">
-        <v>0.51108050676695804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>-2.5</v>
-      </c>
-      <c r="B27">
-        <v>8.7571184178197398E-2</v>
-      </c>
-      <c r="C27">
-        <v>8.7489615200546197E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.30905477398945802</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>-2</v>
-      </c>
-      <c r="B28">
-        <v>5.4175357573696598E-2</v>
-      </c>
-      <c r="C28">
-        <v>5.4123846644771802E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.18705752820658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>-1.5</v>
-      </c>
-      <c r="B29">
-        <v>3.3264700799671698E-2</v>
-      </c>
-      <c r="C29">
-        <v>3.3232664113063699E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.113298258357374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>-1</v>
-      </c>
-      <c r="B30">
-        <v>2.0328932231452601E-2</v>
-      </c>
-      <c r="C30">
-        <v>2.0309198402729298E-2</v>
-      </c>
-      <c r="D30">
-        <v>6.8657633594426601E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1.2387194066701E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.2375111110373699E-2</v>
-      </c>
-      <c r="D31">
-        <v>4.1619686621530101E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>7.5343990687775902E-3</v>
-      </c>
-      <c r="C32">
-        <v>7.5270279621794303E-3</v>
-      </c>
-      <c r="D32">
-        <v>2.5234883914038098E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>4.5776808430442904E-3</v>
-      </c>
-      <c r="C33">
-        <v>4.57319430642277E-3</v>
-      </c>
-      <c r="D33">
-        <v>1.5302479519974099E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2.7793964178670599E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.77666937865587E-3</v>
-      </c>
-      <c r="D34">
-        <v>9.2802181352880098E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>